--- a/omari_mcnp.xlsx
+++ b/omari_mcnp.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.09791380292441</v>
+        <v>19.56870467783557</v>
       </c>
       <c r="C2">
-        <v>0.03364078829305978</v>
+        <v>0.02894430293274442</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.08041340555741</v>
+        <v>19.27198683555866</v>
       </c>
       <c r="C3">
-        <v>0.008050179694958031</v>
+        <v>0.01149361143113127</v>
       </c>
     </row>
   </sheetData>
